--- a/pdf/Tableau.xlsx
+++ b/pdf/Tableau.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flore\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\Portfolio\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2416726-3CD4-41EB-953A-5A0FB20D9CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED54725-E700-4685-A2D7-418B992CD587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,23 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$36</definedName>
   </definedNames>
-  <calcPr calcId="101716"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -121,13 +132,94 @@
   <si>
     <t>NOM et prénom : PORLIER-PAGNON Florent</t>
   </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Gestion des droits utilisateurs lors de la Mission container MMDEBSTRAP (container.md dans gitlab)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réalisation de tickets sur gitlab
+</t>
+  </si>
+  <si>
+    <t>Trello pour mettre en place mes projets professionnelles et les planifier avec les différentes tâches à faire, à améliorer, terminer …</t>
+  </si>
+  <si>
+    <t>Fichier readme.md dans le dossier certifications de gitab pour la mise en place de mon environnement d'apprentissage personnel</t>
+  </si>
+  <si>
+    <t>Portfolio (florentporlier.github.io)</t>
+  </si>
+  <si>
+    <t>09/09/22 au 11/01/23</t>
+  </si>
+  <si>
+    <t>01/10/22 au 07/02/23</t>
+  </si>
+  <si>
+    <t>21/10/22 au 07/02/23</t>
+  </si>
+  <si>
+    <t>01/10/21 au 07/02/23</t>
+  </si>
+  <si>
+    <t>28/11/22 au 05/01/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réalisation de fiches techniques et schémas pour la configuration de switchs (dossiers dans SISR1 et SISR2 sur gitlab)
+</t>
+  </si>
+  <si>
+    <t>08/09/22 et 31/01/23</t>
+  </si>
+  <si>
+    <t>Réalisation d'une procédure d'installation d'un VPN en utilisant les normes et standards de l'organisation</t>
+  </si>
+  <si>
+    <t>Le 01/07/22</t>
+  </si>
+  <si>
+    <t>Résolution de ticket sur site et à distance via GLPI (Helpdesk : Preuve sur gitlab dossier stage)</t>
+  </si>
+  <si>
+    <t>13/09/22 au 06/01/23</t>
+  </si>
+  <si>
+    <t>27/01/22 au 07/02/23</t>
+  </si>
+  <si>
+    <t>Mise en place d'un CXR et d'un Opengear (voir page projets pro de mon portfolio)</t>
+  </si>
+  <si>
+    <t>Gestion de droits utilisateurs dans un domaine (voir page projets pro de mon portfolio)</t>
+  </si>
+  <si>
+    <t>09/01/23 au 17/02/23</t>
+  </si>
+  <si>
+    <t>23/05/22 au 02/07/22</t>
+  </si>
+  <si>
+    <t>Mise en place de google alert + abonnement à des chaines youtube de technologies informatiques (voir mails et ytb)</t>
+  </si>
+  <si>
+    <t>Serveur SSH, DHCP, WEB (sur gitlab dossier SISR2)</t>
+  </si>
+  <si>
+    <t>Projet Zootickoon (https://skyto0.alwaysdata.net/Zootickoon/)</t>
+  </si>
+  <si>
+    <t>08/02/22 au 05/16/22</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -200,7 +292,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -320,36 +412,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
     <border diagonalDown="1">
       <left style="medium">
         <color theme="2" tint="-0.749992370372631"/>
@@ -465,7 +527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -488,24 +550,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -518,22 +574,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -548,19 +595,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -916,85 +963,85 @@
   </sheetPr>
   <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="66" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="66" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
     <col min="3" max="8" width="18.6640625" style="1" customWidth="1"/>
     <col min="9" max="43" width="11.5546875" customWidth="1"/>
     <col min="44" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="24"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:43" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="33" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="14" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="14" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1017,8 +1064,8 @@
       </c>
     </row>
     <row r="6" spans="1:43" s="2" customFormat="1" ht="325.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
@@ -1074,16 +1121,16 @@
       <c r="AQ6"/>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1121,14 +1168,20 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
+      <c r="A8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1166,14 +1219,20 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
+      <c r="A9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1211,14 +1270,20 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
+      <c r="A10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1256,14 +1321,22 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
+      <c r="A11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1301,14 +1374,20 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
+      <c r="A12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1346,14 +1425,20 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="19"/>
+      <c r="A13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1391,14 +1476,20 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
+      <c r="A14" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="15"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1436,14 +1527,20 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
+      <c r="A15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1481,14 +1578,20 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
+      <c r="A16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1526,14 +1629,14 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1571,16 +1674,16 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="30"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1618,14 +1721,20 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19"/>
+      <c r="A19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1663,14 +1772,20 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
+      <c r="A20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1708,14 +1823,20 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19"/>
+      <c r="A21" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -1753,14 +1874,14 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="19"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -1798,14 +1919,14 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -1843,14 +1964,14 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -1888,14 +2009,14 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -1933,14 +2054,14 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -1978,16 +2099,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2025,14 +2146,20 @@
       <c r="AQ27"/>
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19"/>
+      <c r="A28" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="15"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2070,14 +2197,14 @@
       <c r="AQ28"/>
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2115,14 +2242,14 @@
       <c r="AQ29"/>
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2160,14 +2287,14 @@
       <c r="AQ30"/>
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2205,14 +2332,14 @@
       <c r="AQ31"/>
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="19"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2250,14 +2377,14 @@
       <c r="AQ32"/>
     </row>
     <row r="33" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="19"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2295,14 +2422,14 @@
       <c r="AQ33"/>
     </row>
     <row r="34" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="19"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2340,14 +2467,14 @@
       <c r="AQ34"/>
     </row>
     <row r="35" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="21"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
@@ -2492,7 +2619,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="45" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="45" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/pdf/Tableau.xlsx
+++ b/pdf/Tableau.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\Portfolio\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED54725-E700-4685-A2D7-418B992CD587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341D7475-0C71-47AA-9A67-9AF78E313B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,15 +577,24 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -609,15 +618,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -963,8 +963,8 @@
   </sheetPr>
   <dimension ref="A1:AQ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="66" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="66" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -977,56 +977,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="19"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:43" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="28" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="12" t="s">
         <v>8</v>
       </c>
@@ -1038,10 +1038,10 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="29" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1064,8 +1064,8 @@
       </c>
     </row>
     <row r="6" spans="1:43" s="2" customFormat="1" ht="325.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
@@ -1121,16 +1121,16 @@
       <c r="AQ6"/>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1674,16 +1674,16 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -2099,16 +2099,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="25"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2604,22 +2604,22 @@
     <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="45" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="49" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/pdf/Tableau.xlsx
+++ b/pdf/Tableau.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\Portfolio\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341D7475-0C71-47AA-9A67-9AF78E313B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295F54DF-B1A0-431B-927D-2FF4E8C2F379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -97,9 +97,6 @@
 ▸Développer son projet professionnel</t>
   </si>
   <si>
-    <t>Centre de formation :</t>
-  </si>
-  <si>
     <t>▢ SLAM</t>
   </si>
   <si>
@@ -115,9 +112,6 @@
     <t>SESSION 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">N° candidat : </t>
-  </si>
-  <si>
     <t>Période (sous la forme du JJ/MM/AA au JJ/MM/AA)</t>
   </si>
   <si>
@@ -210,7 +204,31 @@
     <t>Projet Zootickoon (https://skyto0.alwaysdata.net/Zootickoon/)</t>
   </si>
   <si>
-    <t>08/02/22 au 05/16/22</t>
+    <t>Paramétrage d'imprimante via application web du constructeur héberger en local</t>
+  </si>
+  <si>
+    <t>Installation d'une clé bootable + déployer le Windows 10 et activer la licence</t>
+  </si>
+  <si>
+    <t>Configuration de postes informatiques (renomme, intégré dans le domaine de l'hôpital) + Installation des logiciels nécessaire via citrix receiver</t>
+  </si>
+  <si>
+    <t>Migration de switch cisco vers aruba (gitlab -&gt;stage)</t>
+  </si>
+  <si>
+    <t>N° candidat : 02247732237</t>
+  </si>
+  <si>
+    <t>Centre de formation : LPO de l'Hautil</t>
+  </si>
+  <si>
+    <t>08/02/22 au 05/05/22</t>
+  </si>
+  <si>
+    <t>Configuration de VLANs sur des switchs Aruba et Cisco (preuve sur cahier de stage)</t>
+  </si>
+  <si>
+    <t>Réalisation de chemins de câble via un fichier d'audit de locaux techniques pour l'installation d'un appareil de prise en main à distance sur les ports consoles  (fichier sur portfolio + cahier de stage)</t>
   </si>
 </sst>
 </file>
@@ -292,7 +310,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -397,21 +415,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </right>
-      <top style="thin">
-        <color theme="2" tint="-0.749992370372631"/>
-      </top>
-      <bottom style="medium">
-        <color theme="2" tint="-0.749992370372631"/>
-      </bottom>
-      <diagonal/>
-    </border>
     <border diagonalDown="1">
       <left style="medium">
         <color theme="2" tint="-0.749992370372631"/>
@@ -527,7 +530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -550,16 +553,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -577,9 +577,39 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -588,36 +618,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -961,88 +961,88 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ82"/>
+  <dimension ref="A1:AQ75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="66" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="71" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="144.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="18.6640625" style="1" customWidth="1"/>
     <col min="9" max="43" width="11.5546875" customWidth="1"/>
     <col min="44" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:43" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
+      <c r="A3" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="5" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>21</v>
+      <c r="A5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>0</v>
@@ -1064,8 +1064,8 @@
       </c>
     </row>
     <row r="6" spans="1:43" s="2" customFormat="1" ht="325.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="30"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
@@ -1121,16 +1121,16 @@
       <c r="AQ6"/>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
+      <c r="A7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
       <c r="I7"/>
       <c r="J7"/>
       <c r="K7"/>
@@ -1169,19 +1169,19 @@
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+        <v>35</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1220,19 +1220,19 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1271,19 +1271,19 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="B10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1322,20 +1322,20 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -1375,18 +1375,18 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15" t="s">
-        <v>26</v>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -1426,19 +1426,19 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1477,19 +1477,19 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="15"/>
+        <v>47</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="14"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1528,18 +1528,18 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15" t="s">
-        <v>26</v>
+        <v>46</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -1579,19 +1579,19 @@
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1628,15 +1628,17 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1673,17 +1675,21 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1724,17 +1730,21 @@
       <c r="A19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
+      <c r="B19" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="14"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1773,19 +1783,19 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
+        <v>43</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1824,19 +1834,21 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+      <c r="C21" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" s="14"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -1874,14 +1886,20 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
+      <c r="A22" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="14"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -1919,14 +1937,24 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
+      <c r="A23" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="14"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -1963,15 +1991,17 @@
       <c r="AP23"/>
       <c r="AQ23"/>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2009,14 +2039,20 @@
       <c r="AQ24"/>
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
+      <c r="A25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="14"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2054,14 +2090,26 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
+      <c r="A26" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="14"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2098,17 +2146,25 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="28"/>
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="14"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2147,19 +2203,23 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="15"/>
+      <c r="C28" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2196,15 +2256,15 @@
       <c r="AP28"/>
       <c r="AQ28"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2241,333 +2301,25 @@
       <c r="AP29"/>
       <c r="AQ29"/>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
-      <c r="U30"/>
-      <c r="V30"/>
-      <c r="W30"/>
-      <c r="X30"/>
-      <c r="Y30"/>
-      <c r="Z30"/>
-      <c r="AA30"/>
-      <c r="AB30"/>
-      <c r="AC30"/>
-      <c r="AD30"/>
-      <c r="AE30"/>
-      <c r="AF30"/>
-      <c r="AG30"/>
-      <c r="AH30"/>
-      <c r="AI30"/>
-      <c r="AJ30"/>
-      <c r="AK30"/>
-      <c r="AL30"/>
-      <c r="AM30"/>
-      <c r="AN30"/>
-      <c r="AO30"/>
-      <c r="AP30"/>
-      <c r="AQ30"/>
-    </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
-      <c r="U31"/>
-      <c r="V31"/>
-      <c r="W31"/>
-      <c r="X31"/>
-      <c r="Y31"/>
-      <c r="Z31"/>
-      <c r="AA31"/>
-      <c r="AB31"/>
-      <c r="AC31"/>
-      <c r="AD31"/>
-      <c r="AE31"/>
-      <c r="AF31"/>
-      <c r="AG31"/>
-      <c r="AH31"/>
-      <c r="AI31"/>
-      <c r="AJ31"/>
-      <c r="AK31"/>
-      <c r="AL31"/>
-      <c r="AM31"/>
-      <c r="AN31"/>
-      <c r="AO31"/>
-      <c r="AP31"/>
-      <c r="AQ31"/>
-    </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
-      <c r="R32"/>
-      <c r="S32"/>
-      <c r="T32"/>
-      <c r="U32"/>
-      <c r="V32"/>
-      <c r="W32"/>
-      <c r="X32"/>
-      <c r="Y32"/>
-      <c r="Z32"/>
-      <c r="AA32"/>
-      <c r="AB32"/>
-      <c r="AC32"/>
-      <c r="AD32"/>
-      <c r="AE32"/>
-      <c r="AF32"/>
-      <c r="AG32"/>
-      <c r="AH32"/>
-      <c r="AI32"/>
-      <c r="AJ32"/>
-      <c r="AK32"/>
-      <c r="AL32"/>
-      <c r="AM32"/>
-      <c r="AN32"/>
-      <c r="AO32"/>
-      <c r="AP32"/>
-      <c r="AQ32"/>
-    </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33"/>
-      <c r="J33"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
-      <c r="R33"/>
-      <c r="S33"/>
-      <c r="T33"/>
-      <c r="U33"/>
-      <c r="V33"/>
-      <c r="W33"/>
-      <c r="X33"/>
-      <c r="Y33"/>
-      <c r="Z33"/>
-      <c r="AA33"/>
-      <c r="AB33"/>
-      <c r="AC33"/>
-      <c r="AD33"/>
-      <c r="AE33"/>
-      <c r="AF33"/>
-      <c r="AG33"/>
-      <c r="AH33"/>
-      <c r="AI33"/>
-      <c r="AJ33"/>
-      <c r="AK33"/>
-      <c r="AL33"/>
-      <c r="AM33"/>
-      <c r="AN33"/>
-      <c r="AO33"/>
-      <c r="AP33"/>
-      <c r="AQ33"/>
-    </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
-      <c r="T34"/>
-      <c r="U34"/>
-      <c r="V34"/>
-      <c r="W34"/>
-      <c r="X34"/>
-      <c r="Y34"/>
-      <c r="Z34"/>
-      <c r="AA34"/>
-      <c r="AB34"/>
-      <c r="AC34"/>
-      <c r="AD34"/>
-      <c r="AE34"/>
-      <c r="AF34"/>
-      <c r="AG34"/>
-      <c r="AH34"/>
-      <c r="AI34"/>
-      <c r="AJ34"/>
-      <c r="AK34"/>
-      <c r="AL34"/>
-      <c r="AM34"/>
-      <c r="AN34"/>
-      <c r="AO34"/>
-      <c r="AP34"/>
-      <c r="AQ34"/>
-    </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35"/>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
-      <c r="U35"/>
-      <c r="V35"/>
-      <c r="W35"/>
-      <c r="X35"/>
-      <c r="Y35"/>
-      <c r="Z35"/>
-      <c r="AA35"/>
-      <c r="AB35"/>
-      <c r="AC35"/>
-      <c r="AD35"/>
-      <c r="AE35"/>
-      <c r="AF35"/>
-      <c r="AG35"/>
-      <c r="AH35"/>
-      <c r="AI35"/>
-      <c r="AJ35"/>
-      <c r="AK35"/>
-      <c r="AL35"/>
-      <c r="AM35"/>
-      <c r="AN35"/>
-      <c r="AO35"/>
-      <c r="AP35"/>
-      <c r="AQ35"/>
-    </row>
-    <row r="36" spans="1:43" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36"/>
-      <c r="T36"/>
-      <c r="U36"/>
-      <c r="V36"/>
-      <c r="W36"/>
-      <c r="X36"/>
-      <c r="Y36"/>
-      <c r="Z36"/>
-      <c r="AA36"/>
-      <c r="AB36"/>
-      <c r="AC36"/>
-      <c r="AD36"/>
-      <c r="AE36"/>
-      <c r="AF36"/>
-      <c r="AG36"/>
-      <c r="AH36"/>
-      <c r="AI36"/>
-      <c r="AJ36"/>
-      <c r="AK36"/>
-      <c r="AL36"/>
-      <c r="AM36"/>
-      <c r="AN36"/>
-      <c r="AO36"/>
-      <c r="AP36"/>
-      <c r="AQ36"/>
-    </row>
-    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2595,26 +2347,19 @@
     <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="B5:B6"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/pdf/Tableau.xlsx
+++ b/pdf/Tableau.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\Portfolio\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295F54DF-B1A0-431B-927D-2FF4E8C2F379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B335AC6-9C02-437E-A32C-C28141E80EBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -109,9 +109,6 @@
 (intitulé et liste des documents et productions associés)</t>
   </si>
   <si>
-    <t>SESSION 2022</t>
-  </si>
-  <si>
     <t>Période (sous la forme du JJ/MM/AA au JJ/MM/AA)</t>
   </si>
   <si>
@@ -180,9 +177,6 @@
     <t>13/09/22 au 06/01/23</t>
   </si>
   <si>
-    <t>27/01/22 au 07/02/23</t>
-  </si>
-  <si>
     <t>Mise en place d'un CXR et d'un Opengear (voir page projets pro de mon portfolio)</t>
   </si>
   <si>
@@ -229,6 +223,12 @@
   </si>
   <si>
     <t>Réalisation de chemins de câble via un fichier d'audit de locaux techniques pour l'installation d'un appareil de prise en main à distance sur les ports consoles  (fichier sur portfolio + cahier de stage)</t>
+  </si>
+  <si>
+    <t>27/01/22 au 16/03/23</t>
+  </si>
+  <si>
+    <t>SESSION 2023</t>
   </si>
 </sst>
 </file>
@@ -963,8 +963,8 @@
   </sheetPr>
   <dimension ref="A1:AQ75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="71" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -986,7 +986,7 @@
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
       <c r="G1" s="18" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="H1" s="18"/>
     </row>
@@ -1004,14 +1004,14 @@
     </row>
     <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="29"/>
       <c r="F3" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="29"/>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
@@ -1031,7 +1031,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>15</v>
@@ -1042,7 +1042,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>0</v>
@@ -1169,13 +1169,13 @@
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>36</v>
-      </c>
       <c r="C8" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
@@ -1220,13 +1220,13 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -1271,14 +1271,14 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -1322,20 +1322,20 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -1386,7 +1386,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -1426,19 +1426,21 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="H13" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1477,17 +1479,17 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
       <c r="G14" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14"/>
@@ -1528,10 +1530,10 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -1539,7 +1541,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -1579,15 +1581,15 @@
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
@@ -1630,7 +1632,7 @@
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -1677,13 +1679,13 @@
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="C18" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -1728,21 +1730,21 @@
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19"/>
@@ -1783,13 +1785,13 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="15" t="s">
-        <v>45</v>
-      </c>
       <c r="C20" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
@@ -1834,19 +1836,19 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H21" s="14"/>
       <c r="I21"/>
@@ -1887,17 +1889,17 @@
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H22" s="14"/>
       <c r="I22"/>
@@ -1938,21 +1940,21 @@
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H23" s="14"/>
       <c r="I23"/>
@@ -1993,7 +1995,7 @@
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
@@ -2040,17 +2042,17 @@
     </row>
     <row r="25" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>42</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>44</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H25" s="14"/>
       <c r="I25"/>
@@ -2091,23 +2093,23 @@
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" s="14"/>
       <c r="F26" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H26" s="14"/>
       <c r="I26"/>
@@ -2148,21 +2150,21 @@
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H27" s="14"/>
       <c r="I27"/>
@@ -2203,20 +2205,20 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" s="14"/>
       <c r="F28" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
@@ -2364,7 +2366,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="49" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="36" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>